--- a/example-dataset/results/IDBased_GroupComparison_QCResult/ExampleDataset-IDBased-Group_QC_Status_Report.xlsx
+++ b/example-dataset/results/IDBased_GroupComparison_QCResult/ExampleDataset-IDBased-Group_QC_Status_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="72">
   <si>
     <t>Filename</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>QC Fail Score</t>
+  </si>
+  <si>
+    <t>0 out of 6 metrics</t>
   </si>
   <si>
     <t>1 out of 6 metrics</t>
@@ -622,7 +625,7 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -639,7 +642,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -656,7 +659,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -673,7 +676,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -690,7 +693,7 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -707,7 +710,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -724,7 +727,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -741,7 +744,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -758,7 +761,7 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -775,7 +778,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -792,7 +795,7 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -809,7 +812,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -843,7 +846,7 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -860,7 +863,7 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -877,7 +880,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -894,7 +897,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -911,7 +914,7 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -928,7 +931,7 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -945,7 +948,7 @@
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -962,7 +965,7 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -979,7 +982,7 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -996,7 +999,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1013,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1030,7 +1033,7 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1047,7 +1050,7 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1064,7 +1067,7 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1081,7 +1084,7 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1098,7 +1101,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1115,7 +1118,7 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1132,7 +1135,7 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1149,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1166,7 +1169,7 @@
         <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1183,7 +1186,7 @@
         <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1200,7 +1203,7 @@
         <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1217,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1234,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1251,7 +1254,7 @@
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1268,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1285,7 +1288,7 @@
         <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1302,7 +1305,7 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1319,7 +1322,7 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1336,7 +1339,7 @@
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1353,7 +1356,7 @@
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1370,7 +1373,7 @@
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1387,7 +1390,7 @@
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1404,7 +1407,7 @@
         <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1469,10 +1472,10 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
         <v>70</v>
@@ -1498,10 +1501,10 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>70</v>
@@ -1533,7 +1536,7 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1556,10 +1559,10 @@
         <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
         <v>70</v>
@@ -1585,10 +1588,10 @@
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
         <v>70</v>
@@ -1614,10 +1617,10 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>70</v>
@@ -1643,10 +1646,10 @@
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>70</v>
@@ -1672,10 +1675,10 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
